--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value503.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value503.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.652152139919322</v>
+        <v>1.268731832504272</v>
       </c>
       <c r="B1">
-        <v>3.255561677800583</v>
+        <v>2.719936370849609</v>
       </c>
       <c r="C1">
-        <v>2.955549315635333</v>
+        <v>4.910079479217529</v>
       </c>
       <c r="D1">
-        <v>1.01850290857285</v>
+        <v>2.034052848815918</v>
       </c>
       <c r="E1">
-        <v>0.7380291704480976</v>
+        <v>1.034162402153015</v>
       </c>
     </row>
   </sheetData>
